--- a/biology/Botanique/Collina_(pomme)/Collina_(pomme).xlsx
+++ b/biology/Botanique/Collina_(pomme)/Collina_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Collina est un cultivar de pommier domestique.
 </t>
@@ -511,9 +523,11 @@
           <t>Règlementations et protections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>COLLINA est une variété inscrite au registre de l'Union européenne[1], donc particulièrement protégée dans les pays qui en font partie;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>COLLINA est une variété inscrite au registre de l'Union européenne, donc particulièrement protégée dans les pays qui en font partie;
 Numéro de variété: 18136
 Date d'inscription: 31/10/2001
 Demandeur: V.O.F. VANDEWALL</t>
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mart Vandewall, Eckelrade, Hollande.
 </t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pomme de couleur striée rouge, de calibre moyen.
 Chair douce-acidulée et aromatique.
@@ -607,9 +625,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété Collina résulte du croisement Priscilla-NL x Elstar[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété Collina résulte du croisement Priscilla-NL x Elstar.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété fécondée par Goldrush, Golden Hornet, Topaz…
 </t>
@@ -669,7 +691,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Maladies: très forte résistance aux races commune de tavelure (gène Vf), sensible à l'oïdium.
 Plantation: variété facile à cultiver dans un petit jardin familial, en alignement d'arbres bas taillés en fuseaux distants d'un mètre seulement.
